--- a/documents/BTS SIO 2026 - Epreuve E5 - Tableau de synthèse.xlsx
+++ b/documents/BTS SIO 2026 - Epreuve E5 - Tableau de synthèse.xlsx
@@ -1,64 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\BTS\2025\CIRCULAIRES NATIONALES\SIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acnor\OneDrive\Bureau\Objectif Mr Robot\Travaux\Portfolio - le retour\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_13326F3ED61FDE0C2D3468356C4017007C356263" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72304F67-A874-496A-99DC-7E458BFBEF64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CC5A2-F924-4B9A-8462-7BB7DAC9DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E5'!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
@@ -66,9 +43,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -139,6 +113,60 @@
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t>SESSION 2026</t>
+  </si>
+  <si>
+    <t>Installation et configuration d'un serveur Linux virtualisé avec la gestion des incidents GLPI</t>
+  </si>
+  <si>
+    <t>Conception et développement du site internet                            E-Ensiegnement avec WordPresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refonte d'un jeu d'echec en langage C </t>
+  </si>
+  <si>
+    <t>Conception et développement du site internet immoblier Neige&amp;Soleil avec Html/CSS et PHP/Mysql</t>
+  </si>
+  <si>
+    <t>Novembre 2025</t>
+  </si>
+  <si>
+    <t>Septembre 2025</t>
+  </si>
+  <si>
+    <t>Octobre 2025</t>
+  </si>
+  <si>
+    <t>Conception et développement du site internet de l'école IRIS Paris en Html/CSS et PHP/Mysql</t>
+  </si>
+  <si>
+    <t>Développement du site marchand d'appareils électroniques avec Shopify en mode projet</t>
+  </si>
+  <si>
+    <t>Conception et refonte d’applications métiers no-code avec KSAAR</t>
+  </si>
+  <si>
+    <t>Paramétrage d’interfaces utilisateur et composants fonctionnels</t>
+  </si>
+  <si>
+    <t>Décembre 2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom : BENNACEUR Rayan</t>
+  </si>
+  <si>
+    <t>Centre de formation : IRIS Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse URL du portfolio : </t>
+  </si>
+  <si>
+    <t>N° candidat : 02544748433</t>
+  </si>
+  <si>
+    <t>Elaboration d'une veille technologique sur le hacking</t>
   </si>
 </sst>
 </file>
@@ -148,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,15 +239,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -243,9 +277,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -253,6 +285,103 @@
       <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -261,230 +390,6 @@
       <top style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
@@ -528,6 +433,187 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -535,9 +621,16 @@
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -548,20 +641,14 @@
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -571,35 +658,7 @@
       <right style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
@@ -610,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,119 +686,146 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,138 +1137,138 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="12" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="41" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="20" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1220,17 +1306,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1267,15 +1353,19 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="35"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1312,15 +1402,19 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="35"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1357,15 +1451,19 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="35"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1402,15 +1500,19 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="36"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1447,15 +1549,19 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="35"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1492,15 +1598,19 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="35"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1537,15 +1647,19 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="35"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1582,15 +1696,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="35"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1627,15 +1741,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="35"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1672,15 +1786,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="35"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1717,16 +1831,16 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1764,15 +1878,15 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="35"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1809,15 +1923,15 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="35"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1854,15 +1968,17 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="38"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1899,15 +2015,19 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="35"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1944,15 +2064,19 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1989,15 +2113,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2034,15 +2158,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2079,17 +2203,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2126,15 +2248,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2171,15 +2293,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2216,15 +2338,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2252,24 +2374,16 @@
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+    </row>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2306,15 +2420,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2351,15 +2465,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2396,15 +2510,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2441,15 +2555,15 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+    <row r="35" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2486,59 +2600,140 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
@@ -2550,12 +2745,32 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="191d0fcf-6d89-4c90-807a-10f37b8d7a4c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9a7dc87b-2be1-4fee-871a-355a79ca984c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F136CB4AE69C04489071CEF15422A7D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="647c5a7c811b885c4474fe5faa23c350">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="191d0fcf-6d89-4c90-807a-10f37b8d7a4c" xmlns:ns3="9a7dc87b-2be1-4fee-871a-355a79ca984c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c51700470d219bd36e6c58fac94e6ff" ns2:_="" ns3:_="">
     <xsd:import namespace="191d0fcf-6d89-4c90-807a-10f37b8d7a4c"/>
@@ -2750,34 +2965,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="191d0fcf-6d89-4c90-807a-10f37b8d7a4c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9a7dc87b-2be1-4fee-871a-355a79ca984c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACD03CA-45EF-44C7-A188-73D4D7EB4523}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CCF3B-7B88-440F-8A0A-FBED7FBF06E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="191d0fcf-6d89-4c90-807a-10f37b8d7a4c"/>
+    <ds:schemaRef ds:uri="9a7dc87b-2be1-4fee-871a-355a79ca984c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CCF3B-7B88-440F-8A0A-FBED7FBF06E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240DE218-FED0-48EE-B696-C7623217CB73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240DE218-FED0-48EE-B696-C7623217CB73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ACD03CA-45EF-44C7-A188-73D4D7EB4523}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="191d0fcf-6d89-4c90-807a-10f37b8d7a4c"/>
+    <ds:schemaRef ds:uri="9a7dc87b-2be1-4fee-871a-355a79ca984c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>